--- a/High_B.xlsx
+++ b/High_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jony\Programming\Python\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D6EC2-C303-4C01-A9D3-B84D5425A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691E07CA-E668-47A4-9947-A2CC29B452B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFFAD6B9-C533-4A1E-9B47-FE2BD557B4B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>f</t>
   </si>
@@ -47,9 +47,6 @@
     <t>sweep</t>
   </si>
   <si>
-    <t>max B</t>
-  </si>
-  <si>
     <t>time 20s</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>max possible</t>
+  </si>
+  <si>
+    <t>max B, reverse ig</t>
+  </si>
+  <si>
+    <t>Breit-Rabi</t>
   </si>
 </sst>
 </file>
@@ -446,20 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3CAA8-EC9D-464E-898A-A6B4DFE51BB7}">
-  <dimension ref="G5:O14"/>
+  <dimension ref="F5:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
         <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="7:15" x14ac:dyDescent="0.3">
@@ -473,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
@@ -490,7 +493,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -499,7 +502,7 @@
         <v>0.96</v>
       </c>
       <c r="O8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="7:15" x14ac:dyDescent="0.3">
@@ -510,7 +513,7 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -527,10 +530,10 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>2.5</v>
@@ -567,7 +570,7 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="O12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="7:15" x14ac:dyDescent="0.3">
@@ -584,7 +587,7 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="O13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="7:15" x14ac:dyDescent="0.3">
@@ -593,6 +596,11 @@
       </c>
       <c r="H14">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/High_B.xlsx
+++ b/High_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jony\Programming\Python\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691E07CA-E668-47A4-9947-A2CC29B452B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E314C4-8A4F-4CB7-8E58-41030A776BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFFAD6B9-C533-4A1E-9B47-FE2BD557B4B5}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EFFAD6B9-C533-4A1E-9B47-FE2BD557B4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>f</t>
+    <t>f_85</t>
   </si>
   <si>
-    <t>V on Bx</t>
+    <t>Bx_85</t>
   </si>
   <si>
-    <t>sweep</t>
+    <t>f_87</t>
   </si>
   <si>
-    <t>time 20s</t>
+    <t>Bx_87</t>
   </si>
   <si>
-    <t>Max B field</t>
+    <t>sweep_85</t>
   </si>
   <si>
-    <t>gain 200</t>
-  </si>
-  <si>
-    <t>For 85</t>
-  </si>
-  <si>
-    <t>For 87</t>
-  </si>
-  <si>
-    <t>whatever</t>
-  </si>
-  <si>
-    <t>Forcing 20</t>
-  </si>
-  <si>
-    <t>sweep 0.775</t>
-  </si>
-  <si>
-    <t>max possible</t>
-  </si>
-  <si>
-    <t>max B, reverse ig</t>
-  </si>
-  <si>
-    <t>Breit-Rabi</t>
+    <t>sweeo_87</t>
   </si>
 </sst>
 </file>
@@ -449,158 +425,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3CAA8-EC9D-464E-898A-A6B4DFE51BB7}">
-  <dimension ref="F5:O20"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.5</v>
+      </c>
+      <c r="B2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.999</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.96</v>
+      </c>
+      <c r="F2">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.999</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.999</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>0.221</v>
+      </c>
+      <c r="F4">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.999</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.999</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.999</v>
+      </c>
+      <c r="D7">
+        <v>6.5</v>
+      </c>
+      <c r="E7">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G8">
-        <v>3.5</v>
-      </c>
-      <c r="H8">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0.96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>2.5</v>
-      </c>
-      <c r="N10">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="11" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G12">
-        <v>2.5</v>
-      </c>
-      <c r="H12">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="M13">
-        <v>6.5</v>
-      </c>
-      <c r="N13">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="O13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="B8">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
-        <v>13</v>
+      <c r="C8">
+        <v>0.999</v>
       </c>
     </row>
   </sheetData>
